--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -103,19 +112,16 @@
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>really</t>
   </si>
   <si>
     <t>social</t>
@@ -124,6 +130,9 @@
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
@@ -131,9 +140,6 @@
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>…</t>
@@ -508,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -619,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="K4">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
       <c r="M4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8947368421052632</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.6666666666666666</v>
@@ -769,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8939393939393939</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>0.6551724137931034</v>
@@ -819,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -840,28 +846,28 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>0.6133333333333333</v>
+      </c>
+      <c r="L8">
+        <v>46</v>
+      </c>
+      <c r="M8">
+        <v>46</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>29</v>
-      </c>
-      <c r="K8">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="L8">
-        <v>38</v>
-      </c>
-      <c r="M8">
-        <v>38</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -869,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -887,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.5866666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5714285714285714</v>
+        <v>0.725</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -937,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
         <v>12</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>0.3125</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
       <c r="M10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -969,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5579710144927537</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -987,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.2592592592592592</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1019,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5319148936170213</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.1967213114754098</v>
+        <v>0.1375227686703097</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>49</v>
+        <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,13 +1075,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4642857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1087,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.1293260473588342</v>
+        <v>0.1060070671378092</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>956</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4615384615384616</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1137,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.08833922261484099</v>
+        <v>0.05079365079365079</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4571428571428571</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.06626506024096386</v>
+        <v>0.0466867469879518</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1237,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.05740740740740741</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1261,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1269,13 +1275,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1923076923076923</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1287,109 +1293,157 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.05681818181818182</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.04117647058823529</v>
+        <v>0.02707373271889401</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>326</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.02710495963091119</v>
+        <v>0.02182284980744544</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1687</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.02051282051282051</v>
-      </c>
-      <c r="L20">
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>764</v>
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
